--- a/medicine/Psychotrope/Bernard_Magrez/Bernard_Magrez.xlsx
+++ b/medicine/Psychotrope/Bernard_Magrez/Bernard_Magrez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Magrez (né le 23 mars 1936 à Bordeaux[2]) est un homme d'affaires bordelais en œnologie, fondateur du « Groupe Bernard Magrez », important propriétaire de grands vignobles internationaux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Magrez (né le 23 mars 1936 à Bordeaux) est un homme d'affaires bordelais en œnologie, fondateur du « Groupe Bernard Magrez », important propriétaire de grands vignobles internationaux.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Bordeaux, Bernard Magrez est autodidacte. C'est en 1960, en intégrant une grande maison de Bordeaux que sa passion pour le vin se concrétise. Il y commence sa carrière comme négociant en vendant des millions de bouteilles dans les hypermarchés naissants avec entre autres les marques de spiritueux Pitterson et de porto Pitters. Il crée à l'âge de 23 ans son entreprise : William Pitters, en 1964 et étend ensuite ses activités au whisky de marque William Peel, à la tequila de marque San Jose et au vin avec la commercialisation du Sidi Brahim[3]. En 1979 Bernard Magrez crée la marque de vin de bordeaux Malesan. Au début des années 2000, il revend les vins Malesan et Sidi Brahim au groupe Castel[4] et les autres alcools à Marie Brizard[5], pour se réorienter vers les vins haut de gamme, en majeure partie dans le bordelais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Bordeaux, Bernard Magrez est autodidacte. C'est en 1960, en intégrant une grande maison de Bordeaux que sa passion pour le vin se concrétise. Il y commence sa carrière comme négociant en vendant des millions de bouteilles dans les hypermarchés naissants avec entre autres les marques de spiritueux Pitterson et de porto Pitters. Il crée à l'âge de 23 ans son entreprise : William Pitters, en 1964 et étend ensuite ses activités au whisky de marque William Peel, à la tequila de marque San Jose et au vin avec la commercialisation du Sidi Brahim. En 1979 Bernard Magrez crée la marque de vin de bordeaux Malesan. Au début des années 2000, il revend les vins Malesan et Sidi Brahim au groupe Castel et les autres alcools à Marie Brizard, pour se réorienter vers les vins haut de gamme, en majeure partie dans le bordelais.
 Dans les années 1980, il fait l’acquisition du prestigieux Château Pape Clément (Grand Cru Classé de Graves), puis du Château Fombrauge en 1999 (Grand Cru Classé de Saint-émilion) et du Château La Tour Carnet (Grand Cru Classé 1855 du Médoc), puis 18 autres domaines bordelais de renom, dont également Clos Haut-Peyraguey (Grand Cru Classé de Sauternes). Au total : 40 propriétés et plus de 1 000 hectares de vignobles dans le monde, plus récemment le château Les Grands Chênes, Cru Bourgeois en Médoc.
-Bernard Magrez travaille en collaboration avec l'œnologue français Michel Rolland depuis 1990. Il obtient la note de 100/100 pour un Château Pape Clément blanc 2009 grand cru de Pessac-léognan décernée par le célèbre critique américain Robert Parker. L'année suivante, c'est le vin rouge qui obtient la même consécration pour le millésime 2010[6].
+Bernard Magrez travaille en collaboration avec l'œnologue français Michel Rolland depuis 1990. Il obtient la note de 100/100 pour un Château Pape Clément blanc 2009 grand cru de Pessac-léognan décernée par le célèbre critique américain Robert Parker. L'année suivante, c'est le vin rouge qui obtient la même consécration pour le millésime 2010.
 En 2010, il fonde sa « Fondation Bernard-Magrez » puis en 2011 l'« Institut culturel Bernard Magrez » pour le mécénat artistique. L'Institut Culturel Bernard Magrez est un lieu d'exposition à Bordeaux qui prend place dans le Château Labottière.
-En 2013, les vignobles Bernard Magrez se dotent d'un drone pour leurs quatre Grands Crus Classés dans les quatre grandes appellations du Bordelais afin d'identifier « tous les besoins de la vigne avec une précision centimétrique »[7].
-En janvier 2018, Bernard Magrez et son épouse sont agressés et séquestrés à leur domicile. Cinq des six prévenus sont condamnés à cinq ans de prison ferme en avril 2021[8].
+En 2013, les vignobles Bernard Magrez se dotent d'un drone pour leurs quatre Grands Crus Classés dans les quatre grandes appellations du Bordelais afin d'identifier « tous les besoins de la vigne avec une précision centimétrique ».
+En janvier 2018, Bernard Magrez et son épouse sont agressés et séquestrés à leur domicile. Cinq des six prévenus sont condamnés à cinq ans de prison ferme en avril 2021.
 </t>
         </is>
       </c>
@@ -547,16 +561,87 @@
           <t>Propriétés viticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bernard Magrez est surnommé « l’homme aux quarante châteaux »[9]. Il possède quarante-trois vignobles répartis principalement à Bordeaux, et dans dix pays différents (France, Argentine, États-Unis, Chili, Espagne, Portugal, Japon, Uruguay, Italie et Maroc).
-Grands crus classés
-Château Pape Clément - Graves
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Magrez est surnommé « l’homme aux quarante châteaux ». Il possède quarante-trois vignobles répartis principalement à Bordeaux, et dans dix pays différents (France, Argentine, États-Unis, Chili, Espagne, Portugal, Japon, Uruguay, Italie et Maroc).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Propriétés viticoles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Grands crus classés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Château Pape Clément - Graves
 Château Fombrauge - Saint Emilion
 Château La Tour Carnet - Medoc
-Clos Haut-Peyraguey - Sauternes
-Vignobles bordelais
-Château Magrez Fombrauge – Saint Emilion Grand Cru
+Clos Haut-Peyraguey - Sauternes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Propriétés viticoles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vignobles bordelais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Château Magrez Fombrauge – Saint Emilion Grand Cru
 Château Les Grands Chênes - Médoc
 Château Bernard Magrez – Saint Estèphe
 Château Malleprat – Pessac Léognan
@@ -574,9 +659,43 @@
 Château Tour Blanche - Médoc
 Château Moulin de Margot - Pomerol
 Château du Parc - Pomerol
-Clos de la sérénité - Bordeaux
-Vignobles du sud de la France
-Domaine Les Pierres Fendues – Pays d'Oc.
+Clos de la sérénité - Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Propriétés viticoles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vignobles du sud de la France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Domaine Les Pierres Fendues – Pays d'Oc.
 Domaine de la Franchise – Côtes du Rhône Villages
 Château Les Muraires – Côtes de Provence
 Château La Gueiranne – Côtes de Provence
@@ -584,9 +703,43 @@
 Domaine du Prélat – Côtes du Rhône Villages / Laudun
 Domaine La Destinée de Clément V – Châteauneuf du Pape
 Domaine de l’Or du Diable – Terrasse du Lurzac
-Une Emotion - Collioure
-Vignobles étrangers
-Domaine Magrez Espagne - Toro
+Une Emotion - Collioure</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Propriétés viticoles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vignobles étrangers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Domaine Magrez Espagne - Toro
 Domaine Magrez Espagne - Priorat
 Domaine Magrez Espagne – Jumilla
 Domaine Magrez Portugal – Douro
@@ -601,64 +754,68 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Bernard_Magrez</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, Bernard Magrez crée La Grande Maison à Bordeaux, hôtel 5 étoiles de 6 chambres de luxe et qui possède 2 étoiles au Guide Michelin. Le restaurant dont le chef est Pierre Gagnaire, a la particularité de posséder une carte des vins avec 259 Crus Classés de Bordeaux dont 172 Grands Crus Classés[10].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, Bernard Magrez crée La Grande Maison à Bordeaux, hôtel 5 étoiles de 6 chambres de luxe et qui possède 2 étoiles au Guide Michelin. Le restaurant dont le chef est Pierre Gagnaire, a la particularité de posséder une carte des vins avec 259 Crus Classés de Bordeaux dont 172 Grands Crus Classés.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Bernard_Magrez</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bernard_Magrez</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Mécénat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis des années, Bernard Magrez est impliqué dans la recherche contre le cancer[11]. Il obtient le Prix de La Charte de Paris pour son mécénat en soutien à la lutte contre le cancer. Il est aussi engagé dans la cancérologie, notamment aux côtés de l’hôpital Bergonié à Bordeaux.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis des années, Bernard Magrez est impliqué dans la recherche contre le cancer. Il obtient le Prix de La Charte de Paris pour son mécénat en soutien à la lutte contre le cancer. Il est aussi engagé dans la cancérologie, notamment aux côtés de l’hôpital Bergonié à Bordeaux.
 Bernard Magrez soutient aussi un orphelinat en Thaïlande accueillant 80 enfants abandonnés. Ce projet permet la prise en charge des enfants à l’orphelinat appelé la Maison de l’Espoir et leur propose la possibilité d’apprendre un métier.
 </t>
         </is>
